--- a/artifacts/2026-proposed/table_vs_avg_gfc.xlsx
+++ b/artifacts/2026-proposed/table_vs_avg_gfc.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>Real GDP</t>
+          <t>US Real GDP</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="A3" s="9" t="n"/>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>Unemployment</t>
+          <t>US Unemployment</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -1008,12 +1008,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artifacts/2026-proposed/table_vs_avg_gfc.xlsx
+++ b/artifacts/2026-proposed/table_vs_avg_gfc.xlsx
@@ -50,8 +50,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F2937"/>
-        <bgColor rgb="001F2937"/>
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
